--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd10</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd10</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06694666666666665</v>
+        <v>0.06694666666666667</v>
       </c>
       <c r="N2">
         <v>0.20084</v>
       </c>
       <c r="O2">
-        <v>0.5868893752684746</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="P2">
-        <v>0.5868893752684747</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="Q2">
-        <v>0.01528655723555555</v>
+        <v>0.00880341972</v>
       </c>
       <c r="R2">
-        <v>0.13757901512</v>
+        <v>0.07923077748</v>
       </c>
       <c r="S2">
-        <v>0.5305951015547924</v>
+        <v>0.1863346358160448</v>
       </c>
       <c r="T2">
-        <v>0.5305951015547925</v>
+        <v>0.1863346358160448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,46 +596,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.04712366666666667</v>
+        <v>0.064349</v>
       </c>
       <c r="N3">
-        <v>0.141371</v>
+        <v>0.193047</v>
       </c>
       <c r="O3">
-        <v>0.4131106247315253</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="P3">
-        <v>0.4131106247315254</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="Q3">
-        <v>0.01076018663088889</v>
+        <v>0.008461829151000001</v>
       </c>
       <c r="R3">
-        <v>0.096841679678</v>
+        <v>0.07615646235899999</v>
       </c>
       <c r="S3">
-        <v>0.3734851628256452</v>
+        <v>0.179104473413563</v>
       </c>
       <c r="T3">
-        <v>0.3734851628256452</v>
+        <v>0.179104473413563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -655,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H4">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I4">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J4">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06694666666666665</v>
+        <v>0.06694666666666667</v>
       </c>
       <c r="N4">
         <v>0.20084</v>
       </c>
       <c r="O4">
-        <v>0.5868893752684746</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="P4">
-        <v>0.5868893752684747</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="Q4">
-        <v>0.001621849946666666</v>
+        <v>0.01528655723555556</v>
       </c>
       <c r="R4">
-        <v>0.01459664952</v>
+        <v>0.13757901512</v>
       </c>
       <c r="S4">
-        <v>0.05629427371368226</v>
+        <v>0.323557795261904</v>
       </c>
       <c r="T4">
-        <v>0.05629427371368227</v>
+        <v>0.323557795261904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -717,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H5">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I5">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J5">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04712366666666667</v>
+        <v>0.064349</v>
       </c>
       <c r="N5">
-        <v>0.141371</v>
+        <v>0.193047</v>
       </c>
       <c r="O5">
-        <v>0.4131106247315253</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="P5">
-        <v>0.4131106247315254</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="Q5">
-        <v>0.001141617948666667</v>
+        <v>0.01469340776066667</v>
       </c>
       <c r="R5">
-        <v>0.010274561538</v>
+        <v>0.132240669846</v>
       </c>
       <c r="S5">
-        <v>0.03962546190588019</v>
+        <v>0.3110030955084883</v>
       </c>
       <c r="T5">
-        <v>0.03962546190588019</v>
+        <v>0.3110030955084883</v>
       </c>
     </row>
   </sheetData>
